--- a/biology/Médecine/1809_en_santé_et_médecine/1809_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1809_en_santé_et_médecine/1809_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1809_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1809_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1809 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1809_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1809_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>États-Unis
-25 décembre : le médecin américain Ephraim McDowell (1771-1830) réalise la première ovariectomie à Danville dans le Kentucky[1].
+25 décembre : le médecin américain Ephraim McDowell (1771-1830) réalise la première ovariectomie à Danville dans le Kentucky.
 France
-Décret impérial du 13 avril 1809 portant création de dix compagnies d'infirmiers d'hôpitaux[2].</t>
+Décret impérial du 13 avril 1809 portant création de dix compagnies d'infirmiers d'hôpitaux.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1809_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1809_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Philippe Pinel (1745-1826) publie des observations de ce qui sera plus tard considéré comme de la schizophrénie[3].
-Heinrich Friedrich Link (1767-1851) décrit le Penicillium pour la première fois[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Philippe Pinel (1745-1826) publie des observations de ce qui sera plus tard considéré comme de la schizophrénie.
+Heinrich Friedrich Link (1767-1851) décrit le Penicillium pour la première fois.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1809_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1809_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,14 +591,16 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4 janvier :  Louis Braille (mort en 1852)[5], inventeur français du système d'écriture en relief pour aveugles qui porte son nom[5].
-6 janvier : Marie Durocher (morte en 1893), gynécologue, sage-femme et médecin brésilienne, première femme médecin en Amérique latine[6],[7].
-21 février : Carl Ernst Bock (en) (mort en 1874), médecin anatomiste allemand[8].
-29 août : Oliver Wendell Holmes (mort en 1894), écrivain, médecin, essayiste et poète américain[9].
-22 novembre : Bénédict Morel (mort en 1873), psychiatre français[10],[11].
-10 décembre : Jules Maisonneuve (mort en 1897), chirurgien français[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 janvier :  Louis Braille (mort en 1852), inventeur français du système d'écriture en relief pour aveugles qui porte son nom.
+6 janvier : Marie Durocher (morte en 1893), gynécologue, sage-femme et médecin brésilienne, première femme médecin en Amérique latine,.
+21 février : Carl Ernst Bock (en) (mort en 1874), médecin anatomiste allemand.
+29 août : Oliver Wendell Holmes (mort en 1894), écrivain, médecin, essayiste et poète américain.
+22 novembre : Bénédict Morel (mort en 1873), psychiatre français,.
+10 décembre : Jules Maisonneuve (mort en 1897), chirurgien français.</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1809_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1809_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,12 +628,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4 mai : Ferdinand Guillemardet (né en 1765), médecin et homme politique français, mort lors d'un internement psychiatrique[13].
-18 mai : Leopold Auenbrugger (né en 1722), médecin et librettiste autrichien, considéré comme l'inventeur de la technique de la percussion lors de l'examen médical[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4 mai : Ferdinand Guillemardet (né en 1765), médecin et homme politique français, mort lors d'un internement psychiatrique.
+18 mai : Leopold Auenbrugger (né en 1722), médecin et librettiste autrichien, considéré comme l'inventeur de la technique de la percussion lors de l'examen médical.
 25 mai :  Louis Vitet (né en 1736), médecin et homme politique français, maire de Lyon.
-27 juillet : Guillaume-René Lefébure (néé en 1744), militaire, historien, médecin, écrivain politique et littérateur français[15].
+27 juillet : Guillaume-René Lefébure (néé en 1744), militaire, historien, médecin, écrivain politique et littérateur français.
 16 décembre : Antoine-François Fourcroy, (né en 1755), médecin, chimiste et député à la Convention nationale.</t>
         </is>
       </c>
